--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="228">
   <si>
     <t xml:space="preserve">Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t xml:space="preserve">IF ANIMATOR.ANIMATE='Сева' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неправильный ответ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">исправленный</t>
   </si>
   <si>
     <t xml:space="preserve">THEN ANIMATOR.HOTEL='2'</t>
@@ -712,7 +718,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,23 +811,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -908,7 +902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -945,7 +939,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,11 +979,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,10 +1019,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1055,10 +1041,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1085,15 +1067,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1121,11 +1099,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1137,43 +1111,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1260,9 +1230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1272,7 +1242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10525320" y="12594600"/>
-          <a:ext cx="157680" cy="218520"/>
+          <a:ext cx="157320" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -1307,9 +1277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>335520</xdr:colOff>
+      <xdr:colOff>335160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1319,7 +1289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11896200" y="12614040"/>
-          <a:ext cx="157680" cy="256320"/>
+          <a:ext cx="157320" cy="255960"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -1779,8 +1749,8 @@
   </sheetPr>
   <dimension ref="A2:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD17" activeCellId="0" sqref="AD17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T202" activeCellId="0" sqref="T202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2331,31 +2301,31 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="Q27" s="20" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="Q27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -2385,32 +2355,32 @@
       <c r="L30" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22" t="s">
+      <c r="N30" s="20"/>
+      <c r="O30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="22" t="n">
+      <c r="P30" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="R30" s="21"/>
-      <c r="S30" s="22" t="s">
+      <c r="R30" s="20"/>
+      <c r="S30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="T30" s="22" t="n">
+      <c r="T30" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="V30" s="21"/>
-      <c r="W30" s="22" t="s">
+      <c r="V30" s="20"/>
+      <c r="W30" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="X30" s="22" t="n">
+      <c r="X30" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="22" t="s">
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AB30" s="22" t="n">
+      <c r="AB30" s="21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2427,7 +2397,7 @@
       <c r="I31" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="22" t="s">
         <v>34</v>
       </c>
       <c r="K31" s="13" t="s">
@@ -2436,40 +2406,40 @@
       <c r="L31" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="22" t="s">
+      <c r="O31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P31" s="22" t="n">
+      <c r="P31" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="S31" s="22" t="s">
+      <c r="S31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T31" s="22" t="n">
+      <c r="T31" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="V31" s="21" t="s">
+      <c r="V31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="W31" s="22" t="s">
+      <c r="W31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="X31" s="22" t="n">
+      <c r="X31" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="Z31" s="21" t="s">
+      <c r="Z31" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AA31" s="22" t="s">
+      <c r="AA31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AB31" s="22" t="n">
+      <c r="AB31" s="21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2486,18 +2456,18 @@
       <c r="L32" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22" t="s">
+      <c r="N32" s="20"/>
+      <c r="O32" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="22" t="n">
+      <c r="P32" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="V32" s="21"/>
-      <c r="W32" s="22" t="s">
+      <c r="V32" s="20"/>
+      <c r="W32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="X32" s="22" t="n">
+      <c r="X32" s="21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2514,11 +2484,11 @@
       <c r="L33" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22" t="s">
+      <c r="N33" s="20"/>
+      <c r="O33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P33" s="22" t="n">
+      <c r="P33" s="21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2529,20 +2499,20 @@
       <c r="I34" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22" t="s">
+      <c r="N34" s="20"/>
+      <c r="O34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P34" s="22" t="n">
+      <c r="P34" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N35" s="21"/>
-      <c r="O35" s="22" t="s">
+      <c r="N35" s="20"/>
+      <c r="O35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P35" s="22" t="n">
+      <c r="P35" s="21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2561,11 +2531,11 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22" t="s">
+      <c r="N36" s="20"/>
+      <c r="O36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P36" s="22" t="n">
+      <c r="P36" s="21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2583,19 +2553,19 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="22" t="s">
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R39" s="22" t="s">
+      <c r="R39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S39" s="24" t="n">
+      <c r="S39" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
     </row>
@@ -2609,19 +2579,19 @@
       <c r="K40" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="22" t="s">
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="R40" s="22" t="s">
+      <c r="R40" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S40" s="24" t="n">
+      <c r="S40" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
     </row>
@@ -2638,7 +2608,7 @@
       <c r="I41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="22" t="s">
         <v>45</v>
       </c>
       <c r="K41" s="13" t="n">
@@ -2648,21 +2618,21 @@
         <v>46</v>
       </c>
       <c r="P41" s="12"/>
-      <c r="Q41" s="22" t="s">
+      <c r="Q41" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R41" s="22" t="s">
+      <c r="R41" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S41" s="24" t="n">
+      <c r="S41" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="26"/>
+      <c r="U41" s="25"/>
       <c r="V41" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="25"/>
-      <c r="X41" s="26"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="25"/>
       <c r="Y41" s="14" t="n">
         <v>1</v>
       </c>
@@ -2677,25 +2647,25 @@
       <c r="K42" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="22" t="s">
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="22" t="s">
+      <c r="R42" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S42" s="24" t="n">
+      <c r="S42" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="U42" s="26" t="s">
+      <c r="U42" s="25" t="s">
         <v>48</v>
       </c>
       <c r="V42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="W42" s="25"/>
-      <c r="X42" s="26" t="s">
+      <c r="W42" s="24"/>
+      <c r="X42" s="25" t="s">
         <v>49</v>
       </c>
       <c r="Y42" s="14" t="n">
@@ -2703,23 +2673,23 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="22" t="s">
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="R43" s="22" t="s">
+      <c r="R43" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S43" s="24" t="n">
+      <c r="S43" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="U43" s="26"/>
+      <c r="U43" s="25"/>
       <c r="V43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="W43" s="25"/>
-      <c r="X43" s="26"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="25"/>
       <c r="Y43" s="14" t="n">
         <v>3</v>
       </c>
@@ -2736,36 +2706,36 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="22" t="s">
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R44" s="22" t="s">
+      <c r="R44" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S44" s="24" t="n">
+      <c r="S44" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="22" t="s">
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R45" s="22" t="s">
+      <c r="R45" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="S45" s="24" t="n">
+      <c r="S45" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
     </row>
@@ -2784,36 +2754,36 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="22" t="s">
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="R46" s="22" t="s">
+      <c r="R46" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S46" s="24" t="n">
+      <c r="S46" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="22" t="s">
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R47" s="22" t="s">
+      <c r="R47" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S47" s="24" t="n">
+      <c r="S47" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
     </row>
@@ -2821,36 +2791,36 @@
       <c r="A49" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="28" t="s">
+      <c r="H50" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="28" t="s">
+      <c r="I50" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="28" t="s">
+      <c r="K50" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="28" t="s">
+      <c r="L50" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2861,13 +2831,13 @@
       <c r="G51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="29" t="n">
+      <c r="H51" s="28" t="n">
         <v>45544</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="22" t="s">
         <v>34</v>
       </c>
       <c r="K51" s="13" t="n">
@@ -2876,11 +2846,11 @@
       <c r="L51" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O51" s="30" t="s">
+      <c r="O51" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="31" t="n">
+      <c r="P51" s="19"/>
+      <c r="Q51" s="29" t="n">
         <v>45544</v>
       </c>
       <c r="R51" s="14" t="s">
@@ -2894,7 +2864,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="29" t="n">
+      <c r="H52" s="28" t="n">
         <v>45534</v>
       </c>
       <c r="I52" s="13" t="s">
@@ -2906,9 +2876,9 @@
       <c r="L52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="31" t="n">
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="29" t="n">
         <v>45534</v>
       </c>
       <c r="R52" s="14" t="s">
@@ -2982,17 +2952,17 @@
       <c r="I59" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="J59" s="23" t="s">
+      <c r="J59" s="22" t="s">
         <v>34</v>
       </c>
       <c r="K59" s="13" t="n">
         <v>87</v>
       </c>
-      <c r="M59" s="30" t="s">
+      <c r="M59" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H60" s="13" t="n">
@@ -3067,65 +3037,65 @@
       <c r="K65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O66" s="30" t="s">
+      <c r="O66" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="32" t="s">
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32" t="s">
+      <c r="S66" s="30"/>
+      <c r="T66" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32" t="s">
+      <c r="U66" s="30"/>
+      <c r="V66" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="33"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="32" t="s">
+      <c r="B67" s="31"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32" t="s">
+      <c r="S67" s="30"/>
+      <c r="T67" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="32" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="30" t="s">
         <v>68</v>
       </c>
       <c r="M68" s="14" t="s">
@@ -3134,225 +3104,225 @@
       <c r="N68" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="O68" s="25"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="25"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="25"/>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="25"/>
-      <c r="AB68" s="25"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="32" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32" t="s">
+      <c r="I69" s="30"/>
+      <c r="J69" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="14" t="s">
         <v>70</v>
       </c>
       <c r="N69" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O69" s="25"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="32" t="s">
+      <c r="O69" s="24"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="26"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="26"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="34"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="30"/>
       <c r="M70" s="14" t="s">
         <v>70</v>
       </c>
       <c r="N70" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="O70" s="25"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="26"/>
-      <c r="V70" s="32" t="s">
+      <c r="O70" s="24"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="W70" s="32"/>
-      <c r="X70" s="32" t="s">
+      <c r="W70" s="30"/>
+      <c r="X70" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="Y70" s="32"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="21"/>
-      <c r="AB70" s="26"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="32"/>
-      <c r="W71" s="32"/>
-      <c r="X71" s="32"/>
-      <c r="Y71" s="32"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="21"/>
-      <c r="AB71" s="26"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="26" t="s">
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="32" t="s">
+      <c r="Q72" s="25"/>
+      <c r="R72" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32" t="s">
+      <c r="S72" s="30"/>
+      <c r="T72" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="U72" s="32"/>
-      <c r="V72" s="32" t="s">
+      <c r="U72" s="30"/>
+      <c r="V72" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="32" t="s">
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="AA72" s="32"/>
+      <c r="AA72" s="30"/>
       <c r="AB72" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="32" t="s">
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="U73" s="32"/>
-      <c r="V73" s="32"/>
-      <c r="W73" s="32"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="32"/>
-      <c r="Z73" s="32" t="s">
+      <c r="U73" s="30"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="AA73" s="32"/>
+      <c r="AA73" s="30"/>
       <c r="AB73" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="25"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="25"/>
-      <c r="Y74" s="25"/>
-      <c r="Z74" s="25"/>
-      <c r="AA74" s="25"/>
-      <c r="AB74" s="25"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="24"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
-      <c r="T76" s="37" t="s">
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3419,10 +3389,10 @@
       <c r="G83" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I83" s="24" t="n">
+      <c r="I83" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="J83" s="24" t="n">
+      <c r="J83" s="23" t="n">
         <v>67</v>
       </c>
       <c r="L83" s="13" t="n">
@@ -3433,10 +3403,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="24" t="n">
+      <c r="I84" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J84" s="24" t="n">
+      <c r="J84" s="23" t="n">
         <v>7</v>
       </c>
       <c r="L84" s="13" t="n">
@@ -3447,10 +3417,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="24" t="n">
+      <c r="I85" s="23" t="n">
         <v>87</v>
       </c>
-      <c r="J85" s="24" t="n">
+      <c r="J85" s="23" t="n">
         <v>65</v>
       </c>
       <c r="L85" s="13" t="n">
@@ -3461,10 +3431,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="24" t="n">
+      <c r="I86" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J86" s="24" t="n">
+      <c r="J86" s="23" t="n">
         <v>7</v>
       </c>
       <c r="L86" s="13" t="n">
@@ -3484,7 +3454,7 @@
       <c r="J88" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K88" s="38"/>
+      <c r="K88" s="35"/>
       <c r="L88" s="15" t="s">
         <v>90</v>
       </c>
@@ -3499,7 +3469,7 @@
       <c r="J89" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K89" s="38"/>
+      <c r="K89" s="35"/>
       <c r="L89" s="15" t="s">
         <v>92</v>
       </c>
@@ -3514,7 +3484,7 @@
       <c r="J90" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K90" s="38"/>
+      <c r="K90" s="35"/>
       <c r="L90" s="15" t="s">
         <v>93</v>
       </c>
@@ -3529,7 +3499,7 @@
       <c r="J91" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K91" s="38"/>
+      <c r="K91" s="35"/>
       <c r="L91" s="15" t="s">
         <v>94</v>
       </c>
@@ -3547,10 +3517,10 @@
       <c r="J93" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L93" s="24" t="n">
+      <c r="L93" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="M93" s="24" t="n">
+      <c r="M93" s="23" t="n">
         <v>9876</v>
       </c>
     </row>
@@ -3561,10 +3531,10 @@
       <c r="J94" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L94" s="24" t="n">
+      <c r="L94" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="M94" s="24" t="n">
+      <c r="M94" s="23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3575,10 +3545,10 @@
       <c r="J95" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L95" s="24" t="n">
+      <c r="L95" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="M95" s="24" t="n">
+      <c r="M95" s="23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3589,10 +3559,10 @@
       <c r="J96" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L96" s="24" t="n">
+      <c r="L96" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="M96" s="24" t="n">
+      <c r="M96" s="23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3635,46 +3605,46 @@
       <c r="Q99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="28" t="s">
+      <c r="I100" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J100" s="28" t="s">
+      <c r="J100" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K100" s="28" t="s">
+      <c r="K100" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="L100" s="28" t="s">
+      <c r="L100" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="M100" s="28" t="s">
+      <c r="M100" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="N100" s="39" t="s">
+      <c r="N100" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O100" s="39"/>
+      <c r="O100" s="36"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="28" t="s">
+      <c r="I101" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="J101" s="28" t="s">
+      <c r="J101" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K101" s="28" t="s">
+      <c r="K101" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="L101" s="28" t="s">
+      <c r="L101" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="M101" s="28" t="s">
+      <c r="M101" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="N101" s="39" t="s">
+      <c r="N101" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="O101" s="39"/>
+      <c r="O101" s="36"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I102" s="13" t="s">
@@ -3689,13 +3659,13 @@
       <c r="L102" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="M102" s="40" t="n">
+      <c r="M102" s="37" t="n">
         <v>36892</v>
       </c>
-      <c r="N102" s="39" t="s">
+      <c r="N102" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="O102" s="39"/>
+      <c r="O102" s="36"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I103" s="13" t="s">
@@ -3710,13 +3680,13 @@
       <c r="L103" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="40" t="n">
+      <c r="M103" s="37" t="n">
         <v>39815</v>
       </c>
-      <c r="N103" s="39" t="s">
+      <c r="N103" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="O103" s="39"/>
+      <c r="O103" s="36"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I104" s="13" t="s">
@@ -3731,13 +3701,13 @@
       <c r="L104" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="M104" s="40" t="n">
+      <c r="M104" s="37" t="n">
         <v>43833</v>
       </c>
-      <c r="N104" s="39" t="s">
+      <c r="N104" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="O104" s="39"/>
+      <c r="O104" s="36"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I105" s="13" t="s">
@@ -3752,13 +3722,13 @@
       <c r="L105" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M105" s="40" t="n">
+      <c r="M105" s="37" t="n">
         <v>36892</v>
       </c>
-      <c r="N105" s="39" t="s">
+      <c r="N105" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="O105" s="39"/>
+      <c r="O105" s="36"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I106" s="13" t="s">
@@ -3773,54 +3743,54 @@
       <c r="L106" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M106" s="40" t="n">
+      <c r="M106" s="37" t="n">
         <v>42374</v>
       </c>
-      <c r="N106" s="39" t="s">
+      <c r="N106" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O106" s="39"/>
+      <c r="O106" s="36"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
-      <c r="T109" s="19"/>
-      <c r="U109" s="19"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="37" t="s">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3828,48 +3798,48 @@
       <c r="F112" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I112" s="28" t="s">
+      <c r="I112" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J112" s="28" t="s">
+      <c r="J112" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K112" s="28" t="s">
+      <c r="K112" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="M112" s="28" t="s">
+      <c r="M112" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="N112" s="28" t="s">
+      <c r="N112" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O112" s="28" t="s">
+      <c r="O112" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H113" s="28" t="s">
+      <c r="H113" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I113" s="28" t="s">
+      <c r="I113" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J113" s="28" t="s">
+      <c r="J113" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="K113" s="28" t="s">
+      <c r="K113" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="M113" s="28" t="s">
+      <c r="M113" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="N113" s="28" t="s">
+      <c r="N113" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O113" s="28" t="s">
+      <c r="O113" s="27" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3962,63 +3932,63 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="38" t="s">
+      <c r="F120" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H120" s="41" t="s">
+      <c r="H120" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I120" s="41" t="s">
+      <c r="I120" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J120" s="41" t="s">
+      <c r="J120" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="K120" s="42" t="s">
+      <c r="K120" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="M120" s="28" t="s">
+      <c r="M120" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="N120" s="28" t="s">
+      <c r="N120" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O120" s="28" t="s">
+      <c r="O120" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H121" s="41" t="s">
+      <c r="H121" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I121" s="41" t="s">
+      <c r="I121" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="J121" s="41" t="s">
+      <c r="J121" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="K121" s="42"/>
-      <c r="M121" s="28" t="s">
+      <c r="K121" s="39"/>
+      <c r="M121" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="N121" s="28" t="s">
+      <c r="N121" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O121" s="28" t="s">
+      <c r="O121" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H122" s="22" t="s">
+      <c r="H122" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I122" s="22" t="s">
+      <c r="I122" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J122" s="22" t="s">
+      <c r="J122" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="K122" s="42"/>
+      <c r="K122" s="39"/>
       <c r="M122" s="13" t="s">
         <v>134</v>
       </c>
@@ -4030,16 +4000,16 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H123" s="22" t="s">
+      <c r="H123" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I123" s="22" t="s">
+      <c r="I123" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J123" s="22" t="s">
+      <c r="J123" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="K123" s="42"/>
+      <c r="K123" s="39"/>
       <c r="M123" s="13" t="s">
         <v>137</v>
       </c>
@@ -4051,101 +4021,101 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H124" s="22" t="s">
+      <c r="H124" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I124" s="22" t="s">
+      <c r="I124" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J124" s="22" t="s">
+      <c r="J124" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="K124" s="42"/>
+      <c r="K124" s="39"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H125" s="22" t="s">
+      <c r="H125" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I125" s="22" t="s">
+      <c r="I125" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J125" s="22" t="s">
+      <c r="J125" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="K125" s="42"/>
+      <c r="K125" s="39"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H126" s="22" t="s">
+      <c r="H126" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I126" s="22" t="s">
+      <c r="I126" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="J126" s="22" t="s">
+      <c r="J126" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="K126" s="42"/>
+      <c r="K126" s="39"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="38" t="s">
+      <c r="F128" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H128" s="41" t="s">
+      <c r="H128" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I128" s="41" t="s">
+      <c r="I128" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J128" s="41" t="s">
+      <c r="J128" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="K128" s="41" t="s">
+      <c r="K128" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="M128" s="28" t="s">
+      <c r="M128" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="N128" s="28" t="s">
+      <c r="N128" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O128" s="28" t="s">
+      <c r="O128" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H129" s="41" t="s">
+      <c r="H129" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I129" s="41" t="s">
+      <c r="I129" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="J129" s="41" t="s">
+      <c r="J129" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="K129" s="41" t="s">
+      <c r="K129" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="M129" s="28" t="s">
+      <c r="M129" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="N129" s="28" t="s">
+      <c r="N129" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O129" s="28" t="s">
+      <c r="O129" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H130" s="22" t="s">
+      <c r="H130" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I130" s="22" t="s">
+      <c r="I130" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J130" s="22" t="n">
+      <c r="J130" s="21" t="n">
         <v>290</v>
       </c>
-      <c r="K130" s="22" t="s">
+      <c r="K130" s="21" t="s">
         <v>134</v>
       </c>
       <c r="M130" s="13" t="s">
@@ -4154,21 +4124,21 @@
       <c r="N130" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="O130" s="43" t="s">
+      <c r="O130" s="40" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H131" s="22" t="s">
+      <c r="H131" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I131" s="22" t="s">
+      <c r="I131" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J131" s="22" t="n">
+      <c r="J131" s="21" t="n">
         <v>302</v>
       </c>
-      <c r="K131" s="22" t="s">
+      <c r="K131" s="21" t="s">
         <v>134</v>
       </c>
       <c r="M131" s="13" t="s">
@@ -4182,44 +4152,44 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H132" s="22" t="s">
+      <c r="H132" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I132" s="22" t="s">
+      <c r="I132" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J132" s="22" t="n">
+      <c r="J132" s="21" t="n">
         <v>300</v>
       </c>
-      <c r="K132" s="22" t="s">
+      <c r="K132" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H133" s="22" t="s">
+      <c r="H133" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I133" s="22" t="s">
+      <c r="I133" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J133" s="22" t="n">
+      <c r="J133" s="21" t="n">
         <v>296</v>
       </c>
-      <c r="K133" s="22" t="s">
+      <c r="K133" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H134" s="22" t="s">
+      <c r="H134" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I134" s="22" t="s">
+      <c r="I134" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="J134" s="22" t="n">
+      <c r="J134" s="21" t="n">
         <v>298</v>
       </c>
-      <c r="K134" s="22" t="s">
+      <c r="K134" s="21" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4227,62 +4197,62 @@
       <c r="F136" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H136" s="41" t="s">
+      <c r="H136" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I136" s="41" t="s">
+      <c r="I136" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J136" s="41" t="s">
+      <c r="J136" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="K136" s="41" t="s">
+      <c r="K136" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="M136" s="28" t="s">
+      <c r="M136" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="N136" s="28" t="s">
+      <c r="N136" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O136" s="28" t="s">
+      <c r="O136" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H137" s="41" t="s">
+      <c r="H137" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="I137" s="41" t="s">
+      <c r="I137" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="J137" s="41" t="s">
+      <c r="J137" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="K137" s="41" t="s">
+      <c r="K137" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="M137" s="28" t="s">
+      <c r="M137" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="N137" s="28" t="s">
+      <c r="N137" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O137" s="28" t="s">
+      <c r="O137" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H138" s="22" t="s">
+      <c r="H138" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I138" s="22" t="s">
+      <c r="I138" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J138" s="22" t="n">
+      <c r="J138" s="21" t="n">
         <v>290</v>
       </c>
-      <c r="K138" s="22" t="s">
+      <c r="K138" s="21" t="s">
         <v>134</v>
       </c>
       <c r="M138" s="13" t="s">
@@ -4296,16 +4266,16 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H139" s="22" t="s">
+      <c r="H139" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I139" s="22" t="s">
+      <c r="I139" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J139" s="22" t="n">
+      <c r="J139" s="21" t="n">
         <v>302</v>
       </c>
-      <c r="K139" s="43" t="s">
+      <c r="K139" s="40" t="s">
         <v>147</v>
       </c>
       <c r="M139" s="13" t="s">
@@ -4319,93 +4289,93 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H140" s="22" t="s">
+      <c r="H140" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I140" s="22" t="s">
+      <c r="I140" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J140" s="22" t="n">
+      <c r="J140" s="21" t="n">
         <v>300</v>
       </c>
-      <c r="K140" s="22" t="s">
+      <c r="K140" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H141" s="22" t="s">
+      <c r="H141" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I141" s="22" t="s">
+      <c r="I141" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J141" s="22" t="n">
+      <c r="J141" s="21" t="n">
         <v>296</v>
       </c>
-      <c r="K141" s="22" t="s">
+      <c r="K141" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H142" s="22" t="s">
+      <c r="H142" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I142" s="22" t="s">
+      <c r="I142" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="J142" s="22" t="n">
+      <c r="J142" s="21" t="n">
         <v>298</v>
       </c>
-      <c r="K142" s="22" t="s">
+      <c r="K142" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="38" t="s">
+      <c r="F144" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="H144" s="28" t="s">
+      <c r="H144" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I144" s="28" t="s">
+      <c r="I144" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J144" s="28" t="s">
+      <c r="J144" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K144" s="28" t="s">
+      <c r="K144" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="M144" s="28" t="s">
+      <c r="M144" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="N144" s="28" t="s">
+      <c r="N144" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O144" s="28" t="s">
+      <c r="O144" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H145" s="28" t="s">
+      <c r="H145" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I145" s="28" t="s">
+      <c r="I145" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J145" s="28" t="s">
+      <c r="J145" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="K145" s="28" t="s">
+      <c r="K145" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="M145" s="28" t="s">
+      <c r="M145" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="N145" s="28" t="s">
+      <c r="N145" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O145" s="28" t="s">
+      <c r="O145" s="27" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4501,65 +4471,65 @@
       <c r="A152" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="19"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H155" s="28" t="s">
+      <c r="H155" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="J155" s="26"/>
-      <c r="K155" s="44"/>
-      <c r="L155" s="45" t="s">
+      <c r="J155" s="25"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="M155" s="45"/>
+      <c r="M155" s="41"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J156" s="46" t="s">
+      <c r="J156" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="K156" s="46"/>
-      <c r="L156" s="32" t="s">
+      <c r="K156" s="42"/>
+      <c r="L156" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="M156" s="32"/>
+      <c r="M156" s="30"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F157" s="1" t="s">
@@ -4571,35 +4541,35 @@
       <c r="H157" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J157" s="26"/>
-      <c r="K157" s="44"/>
-      <c r="L157" s="32" t="s">
+      <c r="J157" s="25"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="M157" s="32"/>
+      <c r="M157" s="30"/>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J158" s="26"/>
-      <c r="K158" s="44"/>
-      <c r="L158" s="32" t="s">
+      <c r="J158" s="25"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="M158" s="32"/>
+      <c r="M158" s="30"/>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J159" s="26"/>
-      <c r="K159" s="44"/>
-      <c r="L159" s="32" t="s">
+      <c r="J159" s="25"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="M159" s="32"/>
+      <c r="M159" s="30"/>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J160" s="35"/>
-      <c r="K160" s="47"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="43"/>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
@@ -4622,31 +4592,31 @@
       <c r="N161" s="3"/>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H162" s="28" t="s">
+      <c r="H162" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I162" s="28" t="s">
+      <c r="I162" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="J162" s="28" t="s">
+      <c r="J162" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="M162" s="28" t="s">
+      <c r="M162" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="N162" s="28" t="s">
+      <c r="N162" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="O162" s="28" t="s">
+      <c r="O162" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="R162" s="28" t="s">
+      <c r="R162" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="S162" s="28" t="s">
+      <c r="S162" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="T162" s="28" t="s">
+      <c r="T162" s="27" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4779,10 +4749,10 @@
       <c r="O167" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="R167" s="28" t="s">
+      <c r="R167" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="S167" s="28" t="s">
+      <c r="S167" s="27" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4796,13 +4766,13 @@
       <c r="J168" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="M168" s="48" t="s">
+      <c r="M168" s="44" t="s">
         <v>184</v>
       </c>
       <c r="N168" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="O168" s="48" t="n">
+      <c r="O168" s="44" t="n">
         <v>2</v>
       </c>
       <c r="Q168" s="1" t="s">
@@ -4811,7 +4781,7 @@
       <c r="R168" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S168" s="49" t="n">
+      <c r="S168" s="45" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -4828,7 +4798,7 @@
       <c r="R169" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="S169" s="49" t="n">
+      <c r="S169" s="45" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -4853,39 +4823,38 @@
       <c r="J171" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="M171" s="0"/>
-      <c r="S171" s="44"/>
-      <c r="T171" s="44"/>
-      <c r="U171" s="41" t="s">
+      <c r="S171" s="20"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="V171" s="41" t="s">
+      <c r="V171" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="W171" s="41" t="s">
+      <c r="W171" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="X171" s="41" t="s">
+      <c r="X171" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="Y171" s="41" t="s">
+      <c r="Y171" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AA171" s="44"/>
-      <c r="AB171" s="44"/>
-      <c r="AC171" s="50" t="s">
+      <c r="AA171" s="20"/>
+      <c r="AB171" s="20"/>
+      <c r="AC171" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="AD171" s="50" t="s">
+      <c r="AD171" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="AE171" s="50" t="s">
+      <c r="AE171" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="AF171" s="50" t="s">
+      <c r="AF171" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="AG171" s="50" t="s">
+      <c r="AG171" s="46" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4899,26 +4868,25 @@
       <c r="J172" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="M172" s="0"/>
-      <c r="S172" s="44"/>
-      <c r="T172" s="44"/>
-      <c r="U172" s="22" t="s">
+      <c r="S172" s="20"/>
+      <c r="T172" s="20"/>
+      <c r="U172" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="V172" s="22" t="s">
+      <c r="V172" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="W172" s="22" t="n">
+      <c r="W172" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="X172" s="22" t="s">
+      <c r="X172" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Y172" s="22" t="s">
+      <c r="Y172" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AA172" s="44"/>
-      <c r="AB172" s="44"/>
+      <c r="AA172" s="20"/>
+      <c r="AB172" s="20"/>
       <c r="AC172" s="14" t="s">
         <v>169</v>
       </c>
@@ -4936,26 +4904,25 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M173" s="0"/>
-      <c r="S173" s="44"/>
-      <c r="T173" s="44"/>
-      <c r="U173" s="22" t="s">
+      <c r="S173" s="20"/>
+      <c r="T173" s="20"/>
+      <c r="U173" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="V173" s="22" t="s">
+      <c r="V173" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="W173" s="22" t="n">
+      <c r="W173" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="X173" s="22" t="s">
+      <c r="X173" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Y173" s="22" t="s">
+      <c r="Y173" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="AA173" s="44"/>
-      <c r="AB173" s="44"/>
+      <c r="AA173" s="20"/>
+      <c r="AB173" s="20"/>
       <c r="AC173" s="14" t="s">
         <v>174</v>
       </c>
@@ -4973,55 +4940,55 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="19" t="s">
+      <c r="B174" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="44"/>
-      <c r="L174" s="44"/>
-      <c r="M174" s="41" t="s">
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="N174" s="41" t="s">
+      <c r="N174" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="O174" s="41" t="s">
+      <c r="O174" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="P174" s="41" t="s">
+      <c r="P174" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="Q174" s="41" t="s">
+      <c r="Q174" s="38" t="s">
         <v>167</v>
       </c>
       <c r="S174" s="12" t="s">
         <v>188</v>
       </c>
       <c r="T174" s="12"/>
-      <c r="U174" s="22" t="s">
+      <c r="U174" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="V174" s="22" t="s">
+      <c r="V174" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="W174" s="22" t="n">
+      <c r="W174" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="X174" s="22" t="s">
+      <c r="X174" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Y174" s="22" t="s">
+      <c r="Y174" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AA174" s="44"/>
-      <c r="AB174" s="44"/>
+      <c r="AA174" s="20"/>
+      <c r="AB174" s="20"/>
       <c r="AC174" s="14" t="s">
         <v>179</v>
       </c>
@@ -5039,42 +5006,42 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K175" s="44"/>
-      <c r="L175" s="44"/>
-      <c r="M175" s="22" t="s">
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N175" s="22" t="n">
+      <c r="N175" s="21" t="n">
         <v>15000</v>
       </c>
-      <c r="O175" s="22" t="n">
+      <c r="O175" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="P175" s="22" t="s">
+      <c r="P175" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Q175" s="22" t="s">
+      <c r="Q175" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="S175" s="44"/>
-      <c r="T175" s="44"/>
-      <c r="U175" s="22" t="s">
+      <c r="S175" s="20"/>
+      <c r="T175" s="20"/>
+      <c r="U175" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V175" s="22" t="s">
+      <c r="V175" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="W175" s="22" t="n">
+      <c r="W175" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="X175" s="22" t="s">
+      <c r="X175" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Y175" s="22" t="s">
+      <c r="Y175" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="AA175" s="44"/>
-      <c r="AB175" s="44"/>
+      <c r="AA175" s="20"/>
+      <c r="AB175" s="20"/>
       <c r="AC175" s="14" t="s">
         <v>55</v>
       </c>
@@ -5095,48 +5062,48 @@
       <c r="C176" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="E176" s="51"/>
-      <c r="F176" s="51"/>
-      <c r="G176" s="51"/>
-      <c r="K176" s="44"/>
-      <c r="L176" s="44"/>
-      <c r="M176" s="22" t="s">
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="47"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N176" s="22" t="n">
+      <c r="N176" s="21" t="n">
         <v>30000</v>
       </c>
-      <c r="O176" s="22" t="n">
+      <c r="O176" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="P176" s="22" t="s">
+      <c r="P176" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Q176" s="22" t="s">
+      <c r="Q176" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="S176" s="44"/>
-      <c r="T176" s="44"/>
-      <c r="U176" s="22" t="s">
+      <c r="S176" s="20"/>
+      <c r="T176" s="20"/>
+      <c r="U176" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="V176" s="22" t="s">
+      <c r="V176" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="W176" s="22" t="n">
+      <c r="W176" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="X176" s="22" t="s">
+      <c r="X176" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Y176" s="22" t="s">
+      <c r="Y176" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="AA176" s="44"/>
-      <c r="AB176" s="44"/>
+      <c r="AA176" s="20"/>
+      <c r="AB176" s="20"/>
       <c r="AC176" s="14" t="s">
         <v>174</v>
       </c>
@@ -5157,52 +5124,52 @@
       <c r="C177" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E177" s="51"/>
-      <c r="F177" s="51"/>
-      <c r="G177" s="51"/>
-      <c r="K177" s="52" t="s">
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="47"/>
+      <c r="K177" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="L177" s="52"/>
-      <c r="M177" s="22" t="s">
+      <c r="L177" s="48"/>
+      <c r="M177" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="N177" s="22" t="n">
+      <c r="N177" s="21" t="n">
         <v>60000</v>
       </c>
-      <c r="O177" s="22" t="n">
+      <c r="O177" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="P177" s="22" t="s">
+      <c r="P177" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Q177" s="22" t="s">
+      <c r="Q177" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="S177" s="44"/>
-      <c r="T177" s="44"/>
-      <c r="U177" s="22" t="s">
+      <c r="S177" s="20"/>
+      <c r="T177" s="20"/>
+      <c r="U177" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="V177" s="22" t="s">
+      <c r="V177" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="W177" s="22" t="n">
+      <c r="W177" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="X177" s="22" t="s">
+      <c r="X177" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Y177" s="22" t="s">
+      <c r="Y177" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AA177" s="53" t="s">
+      <c r="AA177" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="AB177" s="53"/>
+      <c r="AB177" s="48"/>
       <c r="AC177" s="14" t="s">
         <v>184</v>
       </c>
@@ -5223,31 +5190,31 @@
       <c r="C178" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D178" s="51" t="s">
+      <c r="D178" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="E178" s="51"/>
-      <c r="F178" s="51"/>
-      <c r="G178" s="51"/>
-      <c r="K178" s="44"/>
-      <c r="L178" s="44"/>
-      <c r="M178" s="22" t="s">
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="47"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="N178" s="22" t="n">
+      <c r="N178" s="21" t="n">
         <v>17000</v>
       </c>
-      <c r="O178" s="22" t="n">
+      <c r="O178" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="P178" s="22" t="s">
+      <c r="P178" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Q178" s="22" t="s">
+      <c r="Q178" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="AA178" s="44"/>
-      <c r="AB178" s="44"/>
+      <c r="AA178" s="20"/>
+      <c r="AB178" s="20"/>
       <c r="AC178" s="14" t="s">
         <v>169</v>
       </c>
@@ -5268,31 +5235,31 @@
       <c r="C179" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D179" s="51" t="s">
+      <c r="D179" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="E179" s="51"/>
-      <c r="F179" s="51"/>
-      <c r="G179" s="51"/>
-      <c r="K179" s="44"/>
-      <c r="L179" s="44"/>
-      <c r="M179" s="22" t="s">
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="N179" s="22" t="n">
+      <c r="N179" s="21" t="n">
         <v>23000</v>
       </c>
-      <c r="O179" s="22" t="n">
+      <c r="O179" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="P179" s="22" t="s">
+      <c r="P179" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Q179" s="22" t="s">
+      <c r="Q179" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="AA179" s="44"/>
-      <c r="AB179" s="44"/>
+      <c r="AA179" s="20"/>
+      <c r="AB179" s="20"/>
       <c r="AC179" s="14" t="s">
         <v>174</v>
       </c>
@@ -5305,48 +5272,48 @@
       <c r="AF179" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="AG179" s="54" t="s">
+      <c r="AG179" s="49" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D180" s="55"/>
-      <c r="K180" s="44"/>
-      <c r="L180" s="44"/>
-      <c r="M180" s="22" t="s">
+      <c r="D180" s="50"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="N180" s="22" t="n">
+      <c r="N180" s="21" t="n">
         <v>25000</v>
       </c>
-      <c r="O180" s="22" t="n">
+      <c r="O180" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="P180" s="22" t="s">
+      <c r="P180" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q180" s="22" t="s">
+      <c r="Q180" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="S180" s="44"/>
-      <c r="T180" s="44"/>
-      <c r="U180" s="50" t="s">
+      <c r="S180" s="20"/>
+      <c r="T180" s="20"/>
+      <c r="U180" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="V180" s="50" t="s">
+      <c r="V180" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="W180" s="50" t="s">
+      <c r="W180" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="X180" s="50" t="s">
+      <c r="X180" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="Y180" s="50" t="s">
+      <c r="Y180" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="AA180" s="44"/>
-      <c r="AB180" s="44"/>
+      <c r="AA180" s="20"/>
+      <c r="AB180" s="20"/>
       <c r="AC180" s="14" t="s">
         <v>179</v>
       </c>
@@ -5359,31 +5326,31 @@
       <c r="AF180" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="AG180" s="54" t="s">
+      <c r="AG180" s="49" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D181" s="55"/>
-      <c r="K181" s="44"/>
-      <c r="L181" s="44"/>
-      <c r="M181" s="22" t="s">
+      <c r="D181" s="50"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="N181" s="22" t="n">
+      <c r="N181" s="21" t="n">
         <v>32000</v>
       </c>
-      <c r="O181" s="22" t="n">
+      <c r="O181" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="P181" s="22" t="s">
+      <c r="P181" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q181" s="22" t="s">
+      <c r="Q181" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="S181" s="44"/>
-      <c r="T181" s="44"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
       <c r="U181" s="14" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5363,11 @@
       <c r="X181" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="Y181" s="56" t="n">
+      <c r="Y181" s="51" t="n">
         <v>45627</v>
       </c>
-      <c r="AA181" s="44"/>
-      <c r="AB181" s="44"/>
+      <c r="AA181" s="20"/>
+      <c r="AB181" s="20"/>
       <c r="AC181" s="14" t="s">
         <v>55</v>
       </c>
@@ -5413,33 +5380,33 @@
       <c r="AF181" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="AG181" s="54" t="s">
+      <c r="AG181" s="49" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D182" s="55"/>
-      <c r="K182" s="44"/>
-      <c r="L182" s="44"/>
-      <c r="M182" s="22" t="s">
+      <c r="D182" s="50"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="N182" s="22" t="n">
+      <c r="N182" s="21" t="n">
         <v>16000</v>
       </c>
-      <c r="O182" s="22" t="n">
+      <c r="O182" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="P182" s="22" t="s">
+      <c r="P182" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q182" s="22" t="s">
+      <c r="Q182" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="S182" s="53" t="s">
+      <c r="S182" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="T182" s="53"/>
+      <c r="T182" s="48"/>
       <c r="U182" s="14" t="n">
         <v>2</v>
       </c>
@@ -5452,11 +5419,11 @@
       <c r="X182" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="Y182" s="56" t="n">
+      <c r="Y182" s="51" t="n">
         <v>45047</v>
       </c>
-      <c r="AA182" s="44"/>
-      <c r="AB182" s="44"/>
+      <c r="AA182" s="20"/>
+      <c r="AB182" s="20"/>
       <c r="AC182" s="14" t="s">
         <v>174</v>
       </c>
@@ -5469,31 +5436,31 @@
       <c r="AF182" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="AG182" s="54" t="s">
+      <c r="AG182" s="49" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D183" s="55"/>
-      <c r="K183" s="44"/>
-      <c r="L183" s="44"/>
-      <c r="M183" s="22" t="s">
+      <c r="D183" s="50"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="N183" s="22" t="n">
+      <c r="N183" s="21" t="n">
         <v>20000</v>
       </c>
-      <c r="O183" s="22" t="n">
+      <c r="O183" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="P183" s="22" t="s">
+      <c r="P183" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q183" s="22" t="s">
+      <c r="Q183" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="S183" s="44"/>
-      <c r="T183" s="44"/>
+      <c r="S183" s="20"/>
+      <c r="T183" s="20"/>
       <c r="U183" s="14" t="n">
         <v>1</v>
       </c>
@@ -5506,11 +5473,11 @@
       <c r="X183" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="Y183" s="56" t="n">
+      <c r="Y183" s="51" t="n">
         <v>45047</v>
       </c>
-      <c r="AA183" s="44"/>
-      <c r="AB183" s="44"/>
+      <c r="AA183" s="20"/>
+      <c r="AB183" s="20"/>
       <c r="AC183" s="14" t="s">
         <v>184</v>
       </c>
@@ -5523,31 +5490,31 @@
       <c r="AF183" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="AG183" s="54" t="s">
+      <c r="AG183" s="49" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D184" s="55"/>
-      <c r="K184" s="44"/>
-      <c r="L184" s="44"/>
-      <c r="M184" s="22" t="s">
+      <c r="D184" s="50"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20"/>
+      <c r="M184" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="N184" s="22" t="n">
+      <c r="N184" s="21" t="n">
         <v>40000</v>
       </c>
-      <c r="O184" s="22" t="n">
+      <c r="O184" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="P184" s="22" t="s">
+      <c r="P184" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q184" s="22" t="s">
+      <c r="Q184" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="S184" s="44"/>
-      <c r="T184" s="44"/>
+      <c r="S184" s="20"/>
+      <c r="T184" s="20"/>
       <c r="U184" s="14" t="n">
         <v>2</v>
       </c>
@@ -5560,7 +5527,7 @@
       <c r="X184" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="Y184" s="56" t="n">
+      <c r="Y184" s="51" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -5606,7 +5573,7 @@
       <c r="K189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M190" s="32" t="s">
+      <c r="M190" s="30" t="s">
         <v>199</v>
       </c>
       <c r="N190" s="14" t="s">
@@ -5615,13 +5582,13 @@
       <c r="O190" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="Q190" s="39" t="s">
+      <c r="Q190" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="R190" s="22" t="s">
+      <c r="R190" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="S190" s="22" t="s">
+      <c r="S190" s="21" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5629,12 +5596,12 @@
       <c r="E191" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F191" s="51" t="s">
+      <c r="F191" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
+      <c r="G191" s="47"/>
+      <c r="H191" s="47"/>
+      <c r="I191" s="47"/>
       <c r="M191" s="14" t="s">
         <v>204</v>
       </c>
@@ -5644,13 +5611,13 @@
       <c r="O191" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Q191" s="22" t="s">
+      <c r="Q191" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="R191" s="22" t="n">
+      <c r="R191" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="S191" s="22" t="n">
+      <c r="S191" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5658,12 +5625,12 @@
       <c r="E192" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F192" s="51" t="s">
+      <c r="F192" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
-      <c r="I192" s="51"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="47"/>
+      <c r="I192" s="47"/>
       <c r="M192" s="14" t="s">
         <v>206</v>
       </c>
@@ -5673,13 +5640,13 @@
       <c r="O192" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="Q192" s="22" t="s">
+      <c r="Q192" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="R192" s="22" t="n">
+      <c r="R192" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="S192" s="22" t="n">
+      <c r="S192" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5687,26 +5654,26 @@
       <c r="A194" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B194" s="19" t="s">
+      <c r="B194" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-      <c r="O194" s="19"/>
-      <c r="P194" s="19"/>
-      <c r="Q194" s="19"/>
-      <c r="R194" s="19"/>
-      <c r="S194" s="19"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="3"/>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="3" t="s">
@@ -5729,19 +5696,37 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
-      <c r="L196" s="41" t="s">
+      <c r="J196" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="K196" s="52"/>
+      <c r="L196" s="52"/>
+      <c r="M196" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="M196" s="41" t="s">
+      <c r="N196" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="N196" s="41" t="s">
+      <c r="O196" s="53" t="s">
         <v>164</v>
       </c>
+      <c r="R196" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="S196" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="T196" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="U196" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="V196" s="54"/>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -5749,239 +5734,300 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
-      <c r="L197" s="22" t="s">
+      <c r="J197" s="55"/>
+      <c r="M197" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M197" s="22" t="s">
+      <c r="N197" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="N197" s="22" t="n">
+      <c r="O197" s="40" t="n">
         <v>2</v>
       </c>
+      <c r="R197" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="S197" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="T197" s="21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R198" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="S198" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="T198" s="21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-      <c r="O199" s="19"/>
-      <c r="P199" s="19"/>
+      <c r="B199" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="R199" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="S199" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="T199" s="21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R200" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S200" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="T200" s="21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D201" s="57"/>
-      <c r="E201" s="57"/>
-      <c r="F201" s="57"/>
-      <c r="G201" s="57"/>
-      <c r="H201" s="57"/>
-      <c r="I201" s="57"/>
-      <c r="J201" s="57"/>
-      <c r="K201" s="57"/>
-      <c r="L201" s="57"/>
-      <c r="M201" s="57"/>
-      <c r="N201" s="57"/>
+      <c r="C201" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D201" s="56"/>
+      <c r="E201" s="56"/>
+      <c r="F201" s="56"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="56"/>
+      <c r="I201" s="56"/>
+      <c r="J201" s="56"/>
+      <c r="K201" s="56"/>
+      <c r="L201" s="56"/>
+      <c r="M201" s="56"/>
+      <c r="N201" s="56"/>
+      <c r="R201" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="S201" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="T201" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R202" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="S202" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="T202" s="21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B203" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="19"/>
-      <c r="K203" s="19"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
-      <c r="N203" s="19"/>
-      <c r="O203" s="19"/>
-      <c r="P203" s="19"/>
+      <c r="B203" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="20" t="s">
+      <c r="C205" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D205" s="20"/>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="20"/>
-      <c r="H205" s="20"/>
-      <c r="J205" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K205" s="20"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+      <c r="J205" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K205" s="19"/>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D206" s="20"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="20"/>
-      <c r="H206" s="20"/>
-      <c r="J206" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="K206" s="20"/>
+      <c r="C206" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
+      <c r="J206" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="K206" s="19"/>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="D207" s="58"/>
-      <c r="E207" s="58"/>
-      <c r="F207" s="58"/>
-      <c r="G207" s="58"/>
-      <c r="H207" s="58"/>
+      <c r="C207" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B209" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
-      <c r="N209" s="19"/>
-      <c r="O209" s="19"/>
-      <c r="P209" s="19"/>
-      <c r="Q209" s="19"/>
+      <c r="B209" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D211" s="58"/>
-      <c r="E211" s="58"/>
-      <c r="F211" s="58"/>
-      <c r="G211" s="58"/>
-      <c r="H211" s="58"/>
-      <c r="I211" s="58"/>
+      <c r="C211" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D211" s="42"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
+      <c r="G211" s="42"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="42"/>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D212" s="20"/>
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="20"/>
-      <c r="H212" s="20"/>
-      <c r="I212" s="20"/>
+      <c r="C212" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
-      <c r="F213" s="30"/>
-      <c r="G213" s="30"/>
-      <c r="H213" s="30"/>
-      <c r="I213" s="30"/>
+      <c r="C213" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="30"/>
-      <c r="H214" s="30"/>
-      <c r="I214" s="30"/>
-      <c r="J214" s="30"/>
+      <c r="C214" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B216" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="19"/>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="19"/>
-      <c r="K216" s="19"/>
-      <c r="L216" s="19"/>
-      <c r="M216" s="19"/>
-      <c r="N216" s="19"/>
+      <c r="B216" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H218" s="59" t="s">
+      <c r="H218" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I218" s="59"/>
-      <c r="K218" s="60" t="s">
+      <c r="I218" s="12"/>
+      <c r="K218" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="M218" s="61" t="s">
+      <c r="M218" s="57" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="62" t="s">
+      <c r="C219" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D219" s="62"/>
-      <c r="E219" s="62"/>
-      <c r="F219" s="62"/>
-      <c r="O219" s="60" t="s">
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="O219" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="Q219" s="60" t="s">
+      <c r="Q219" s="57" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H220" s="59" t="s">
+      <c r="H220" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I220" s="59"/>
-      <c r="K220" s="60" t="s">
+      <c r="I220" s="12"/>
+      <c r="K220" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="M220" s="61" t="s">
+      <c r="M220" s="57" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M221" s="26" t="s">
+      <c r="M221" s="25" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5989,97 +6035,94 @@
       <c r="A222" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
+      <c r="B222" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="0"/>
-      <c r="D224" s="63" t="s">
+      <c r="D224" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E224" s="63"/>
-      <c r="F224" s="63"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="58"/>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="0"/>
-      <c r="D225" s="64" t="s">
+      <c r="D225" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="E225" s="64"/>
-      <c r="F225" s="64"/>
+      <c r="E225" s="59"/>
+      <c r="F225" s="59"/>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="0"/>
-      <c r="D226" s="64" t="s">
+      <c r="D226" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="E226" s="64"/>
-      <c r="F226" s="64"/>
+      <c r="E226" s="59"/>
+      <c r="F226" s="59"/>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B228" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="19"/>
+      <c r="B228" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="45" t="s">
+      <c r="C230" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D230" s="45"/>
-      <c r="E230" s="45"/>
-      <c r="F230" s="45"/>
-      <c r="G230" s="50" t="s">
+      <c r="D230" s="41"/>
+      <c r="E230" s="41"/>
+      <c r="F230" s="41"/>
+      <c r="G230" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="H230" s="65"/>
-      <c r="I230" s="50" t="s">
+      <c r="H230" s="25"/>
+      <c r="I230" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="J230" s="50" t="s">
+      <c r="J230" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="K230" s="50" t="s">
+      <c r="K230" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="L230" s="50" t="s">
+      <c r="L230" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="M230" s="50" t="s">
+      <c r="M230" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="32" t="s">
+      <c r="C231" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="32" t="n">
+      <c r="D231" s="30"/>
+      <c r="E231" s="30"/>
+      <c r="F231" s="30"/>
+      <c r="G231" s="30" t="n">
         <v>15000</v>
       </c>
-      <c r="H231" s="32"/>
+      <c r="H231" s="30"/>
       <c r="I231" s="14" t="n">
         <v>1</v>
       </c>
@@ -6092,21 +6135,21 @@
       <c r="L231" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="M231" s="56" t="s">
+      <c r="M231" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="32" t="s">
+      <c r="C232" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32"/>
-      <c r="G232" s="32" t="n">
+      <c r="D232" s="30"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="30"/>
+      <c r="G232" s="30" t="n">
         <v>30000</v>
       </c>
-      <c r="H232" s="32"/>
+      <c r="H232" s="30"/>
       <c r="I232" s="14" t="n">
         <v>1</v>
       </c>
@@ -6119,21 +6162,21 @@
       <c r="L232" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="M232" s="56" t="n">
+      <c r="M232" s="51" t="n">
         <v>45047</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="32" t="s">
+      <c r="C233" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="32" t="n">
+      <c r="D233" s="30"/>
+      <c r="E233" s="30"/>
+      <c r="F233" s="30"/>
+      <c r="G233" s="30" t="n">
         <v>60000</v>
       </c>
-      <c r="H233" s="32"/>
+      <c r="H233" s="30"/>
       <c r="I233" s="14" t="n">
         <v>1</v>
       </c>
@@ -6146,21 +6189,21 @@
       <c r="L233" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="M233" s="56" t="s">
+      <c r="M233" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="32" t="s">
+      <c r="C234" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32" t="n">
+      <c r="D234" s="30"/>
+      <c r="E234" s="30"/>
+      <c r="F234" s="30"/>
+      <c r="G234" s="30" t="n">
         <v>17000</v>
       </c>
-      <c r="H234" s="32"/>
+      <c r="H234" s="30"/>
       <c r="I234" s="14" t="n">
         <v>1</v>
       </c>
@@ -6173,21 +6216,21 @@
       <c r="L234" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="M234" s="66" t="n">
+      <c r="M234" s="60" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="32" t="s">
+      <c r="C235" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="32" t="n">
+      <c r="D235" s="30"/>
+      <c r="E235" s="30"/>
+      <c r="F235" s="30"/>
+      <c r="G235" s="30" t="n">
         <v>23000</v>
       </c>
-      <c r="H235" s="32"/>
+      <c r="H235" s="30"/>
       <c r="I235" s="14" t="n">
         <v>1</v>
       </c>
@@ -6200,21 +6243,21 @@
       <c r="L235" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="M235" s="56" t="s">
+      <c r="M235" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="32" t="s">
+      <c r="C236" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="32" t="n">
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="30"/>
+      <c r="G236" s="30" t="n">
         <v>25000</v>
       </c>
-      <c r="H236" s="32"/>
+      <c r="H236" s="30"/>
       <c r="I236" s="14" t="n">
         <v>2</v>
       </c>
@@ -6227,21 +6270,21 @@
       <c r="L236" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="M236" s="56" t="s">
+      <c r="M236" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="32" t="s">
+      <c r="C237" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32" t="n">
+      <c r="D237" s="30"/>
+      <c r="E237" s="30"/>
+      <c r="F237" s="30"/>
+      <c r="G237" s="30" t="n">
         <v>32000</v>
       </c>
-      <c r="H237" s="32"/>
+      <c r="H237" s="30"/>
       <c r="I237" s="14" t="n">
         <v>2</v>
       </c>
@@ -6254,21 +6297,21 @@
       <c r="L237" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="M237" s="56" t="s">
+      <c r="M237" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="32" t="s">
+      <c r="C238" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D238" s="32"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32" t="n">
+      <c r="D238" s="30"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="30"/>
+      <c r="G238" s="30" t="n">
         <v>16000</v>
       </c>
-      <c r="H238" s="32"/>
+      <c r="H238" s="30"/>
       <c r="I238" s="14" t="n">
         <v>2</v>
       </c>
@@ -6281,21 +6324,21 @@
       <c r="L238" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="M238" s="66" t="n">
+      <c r="M238" s="60" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="32" t="s">
+      <c r="C239" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32" t="n">
+      <c r="D239" s="30"/>
+      <c r="E239" s="30"/>
+      <c r="F239" s="30"/>
+      <c r="G239" s="30" t="n">
         <v>20000</v>
       </c>
-      <c r="H239" s="32"/>
+      <c r="H239" s="30"/>
       <c r="I239" s="14" t="n">
         <v>2</v>
       </c>
@@ -6308,21 +6351,21 @@
       <c r="L239" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="M239" s="66" t="n">
+      <c r="M239" s="60" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="32" t="s">
+      <c r="C240" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D240" s="32"/>
-      <c r="E240" s="32"/>
-      <c r="F240" s="32"/>
-      <c r="G240" s="32" t="n">
+      <c r="D240" s="30"/>
+      <c r="E240" s="30"/>
+      <c r="F240" s="30"/>
+      <c r="G240" s="30" t="n">
         <v>40000</v>
       </c>
-      <c r="H240" s="32"/>
+      <c r="H240" s="30"/>
       <c r="I240" s="14" t="n">
         <v>2</v>
       </c>
@@ -6335,21 +6378,21 @@
       <c r="L240" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="M240" s="56" t="n">
+      <c r="M240" s="51" t="n">
         <v>45047</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="32" t="s">
+      <c r="C241" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D241" s="32"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="32"/>
-      <c r="G241" s="32" t="n">
+      <c r="D241" s="30"/>
+      <c r="E241" s="30"/>
+      <c r="F241" s="30"/>
+      <c r="G241" s="30" t="n">
         <v>17000</v>
       </c>
-      <c r="H241" s="32"/>
+      <c r="H241" s="30"/>
       <c r="I241" s="14" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6405,7 @@
       <c r="L241" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="M241" s="56" t="n">
+      <c r="M241" s="51" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -6370,7 +6413,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="128">
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="W5:AC7"/>
@@ -6451,6 +6494,8 @@
     <mergeCell ref="B194:S194"/>
     <mergeCell ref="B195:H195"/>
     <mergeCell ref="B196:H196"/>
+    <mergeCell ref="J196:L196"/>
+    <mergeCell ref="U196:V196"/>
     <mergeCell ref="B197:H197"/>
     <mergeCell ref="B199:P199"/>
     <mergeCell ref="C201:N201"/>
